--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4393A0-DEBB-4619-879E-9319A2F0C81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894334CE-495E-46A0-8737-CB6778459FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="14370" yWindow="45" windowWidth="14565" windowHeight="8220" firstSheet="4" activeTab="1" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -16056,8 +16056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28A1B1-7502-429F-85F9-CD10DDDC1BB5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894334CE-495E-46A0-8737-CB6778459FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D259A92E-7CCC-47BB-9887-B35942E1D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="45" windowWidth="14565" windowHeight="8220" firstSheet="4" activeTab="1" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Length [m]</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>capacity</t>
@@ -132,13 +129,16 @@
     <t>cost$perKm</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>id_truck</t>
+  </si>
+  <si>
+    <t>LookUP_ID</t>
   </si>
 </sst>
 </file>
@@ -221,17 +221,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16056,8 +16054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28A1B1-7502-429F-85F9-CD10DDDC1BB5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16067,19 +16065,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16090,10 +16088,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16104,10 +16102,10 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16118,10 +16116,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16167,7 +16165,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16177,58 +16175,88 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>465</v>
+      </c>
       <c r="B2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
       <c r="B3">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>586</v>
+      </c>
       <c r="B4">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>141</v>
+      </c>
       <c r="B5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>739</v>
+      </c>
       <c r="B7">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
       <c r="B8">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59</v>
+      </c>
       <c r="B9">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>526</v>
+      </c>
       <c r="B10">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>552</v>
+      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -16269,7 +16297,7 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16286,7 +16314,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -31793,7 +31821,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -47288,34 +47316,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" s="4">
@@ -47324,12 +47351,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" s="4">
@@ -47338,12 +47365,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" s="4">
@@ -47352,12 +47379,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" s="4">
@@ -47366,12 +47393,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>30</v>
       </c>
       <c r="D6" s="4">
@@ -47380,12 +47407,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" s="4">
@@ -47394,12 +47421,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" s="4">
@@ -47408,12 +47435,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" s="4">
@@ -47422,23 +47449,23 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>30</v>
       </c>
       <c r="D11" s="4">
@@ -47447,12 +47474,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" s="4">
@@ -47461,12 +47488,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
         <v>30</v>
       </c>
       <c r="D13" s="4">
@@ -47475,12 +47502,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
         <v>30</v>
       </c>
       <c r="D14" s="4">
@@ -47489,12 +47516,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
         <v>30</v>
       </c>
       <c r="D15" s="4">
@@ -47503,12 +47530,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
         <v>30</v>
       </c>
       <c r="D16" s="4">
@@ -47517,12 +47544,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="6">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" s="4">
@@ -47531,12 +47558,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" s="4">
@@ -47545,12 +47572,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" s="4">
@@ -47559,12 +47586,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
         <v>40</v>
       </c>
       <c r="D20" s="4">
@@ -47573,12 +47600,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" s="4">
@@ -47587,12 +47614,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
         <v>40</v>
       </c>
       <c r="D22" s="4">
@@ -47601,12 +47628,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>40</v>
       </c>
       <c r="D23" s="4">
@@ -47615,12 +47642,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>40</v>
       </c>
       <c r="D24" s="4">
@@ -47629,12 +47656,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
         <v>40</v>
       </c>
       <c r="D25" s="4">
@@ -47643,12 +47670,12 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
         <v>40</v>
       </c>
       <c r="D26" s="4">
@@ -47657,12 +47684,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
         <v>40</v>
       </c>
       <c r="D27" s="4">
@@ -47671,23 +47698,23 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="7">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
         <v>40</v>
       </c>
       <c r="D29" s="4">
@@ -47696,12 +47723,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
         <v>40</v>
       </c>
       <c r="D30" s="4">
@@ -47710,12 +47737,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="7">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
         <v>40</v>
       </c>
       <c r="D31" s="4">
@@ -47724,12 +47751,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
         <v>40</v>
       </c>
       <c r="D32" s="4">
@@ -47738,12 +47765,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="7">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
         <v>40</v>
       </c>
       <c r="D33" s="4">
@@ -47752,12 +47779,12 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="7">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
         <v>40</v>
       </c>
       <c r="D34" s="4">
@@ -47766,12 +47793,12 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="7">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
         <v>40</v>
       </c>
       <c r="D35" s="4">
@@ -47780,12 +47807,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="7">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36">
         <v>40</v>
       </c>
       <c r="D36" s="4">
@@ -47794,12 +47821,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="7">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37">
         <v>40</v>
       </c>
       <c r="D37" s="4">
@@ -47808,12 +47835,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="7">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
         <v>50</v>
       </c>
       <c r="D38" s="4">
@@ -47822,12 +47849,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="7">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
         <v>50</v>
       </c>
       <c r="D39" s="4">
@@ -47836,12 +47863,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="7">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
         <v>50</v>
       </c>
       <c r="D40" s="4">
@@ -47850,12 +47877,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="7">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
         <v>50</v>
       </c>
       <c r="D41" s="4">
@@ -47864,12 +47891,12 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="7">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
         <v>50</v>
       </c>
       <c r="D42" s="4">
@@ -47878,12 +47905,12 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="7">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
         <v>50</v>
       </c>
       <c r="D43" s="4">
@@ -47892,12 +47919,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="7">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
         <v>50</v>
       </c>
       <c r="D44" s="4">
@@ -47906,12 +47933,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="7">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
         <v>50</v>
       </c>
       <c r="D45" s="4">
@@ -47920,23 +47947,23 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="7">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
         <v>50</v>
       </c>
       <c r="D47" s="4">
@@ -47945,12 +47972,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="7">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
         <v>50</v>
       </c>
       <c r="D48" s="4">
@@ -47959,12 +47986,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="7">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
         <v>50</v>
       </c>
       <c r="D49" s="4">
@@ -47973,12 +48000,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="7">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" s="4">
@@ -47987,12 +48014,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="7">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" s="4">
@@ -48001,12 +48028,12 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="7">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
         <v>50</v>
       </c>
       <c r="D52" s="4">
@@ -48015,12 +48042,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="7">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
         <v>50</v>
       </c>
       <c r="D53" s="4">
@@ -48029,12 +48056,12 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="7">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
         <v>50</v>
       </c>
       <c r="D54" s="4">
@@ -48043,12 +48070,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="7">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
         <v>50</v>
       </c>
       <c r="D55" s="4">
@@ -48057,12 +48084,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="7">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
         <v>60</v>
       </c>
       <c r="D56" s="4">
@@ -48071,12 +48098,12 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="7">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
         <v>60</v>
       </c>
       <c r="D57" s="4">
@@ -48085,12 +48112,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="7">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
         <v>60</v>
       </c>
       <c r="D58" s="4">
@@ -48099,12 +48126,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="7">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
         <v>60</v>
       </c>
       <c r="D59" s="4">
@@ -48113,12 +48140,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="7">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" s="4">
@@ -48127,12 +48154,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="7">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" s="4">
@@ -48141,12 +48168,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="7">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
         <v>60</v>
       </c>
       <c r="D62" s="4">
@@ -48155,12 +48182,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="7">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63">
         <v>60</v>
       </c>
       <c r="D63" s="4">
@@ -48169,24 +48196,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>60</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="7">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
         <v>60</v>
       </c>
       <c r="D65" s="4">
@@ -48195,12 +48222,12 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="7">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
         <v>60</v>
       </c>
       <c r="D66" s="4">
@@ -48209,12 +48236,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="7">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67">
         <v>60</v>
       </c>
       <c r="D67" s="4">
@@ -48223,12 +48250,12 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="7">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
         <v>60</v>
       </c>
       <c r="D68" s="4">
@@ -48237,12 +48264,12 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="7">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
         <v>60</v>
       </c>
       <c r="D69" s="4">
@@ -48251,12 +48278,12 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="7">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
         <v>60</v>
       </c>
       <c r="D70" s="4">
@@ -48265,12 +48292,12 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="7">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71">
         <v>60</v>
       </c>
       <c r="D71" s="4">
@@ -48279,12 +48306,12 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="7">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
         <v>60</v>
       </c>
       <c r="D72" s="4">
@@ -48293,12 +48320,12 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="7">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
         <v>60</v>
       </c>
       <c r="D73" s="4">
@@ -48307,12 +48334,12 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="7">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
         <v>70</v>
       </c>
       <c r="D74" s="4">
@@ -48321,12 +48348,12 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="7">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
         <v>70</v>
       </c>
       <c r="D75" s="4">
@@ -48335,12 +48362,12 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="7">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
         <v>70</v>
       </c>
       <c r="D76" s="4">
@@ -48349,12 +48376,12 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="7">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
         <v>70</v>
       </c>
       <c r="D77" s="4">
@@ -48363,12 +48390,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="7">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78">
         <v>70</v>
       </c>
       <c r="D78" s="4">
@@ -48377,12 +48404,12 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="7">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
         <v>70</v>
       </c>
       <c r="D79" s="4">
@@ -48391,12 +48418,12 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="7">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80">
         <v>70</v>
       </c>
       <c r="D80" s="4">
@@ -48405,12 +48432,12 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="7">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
         <v>70</v>
       </c>
       <c r="D81" s="4">
@@ -48419,23 +48446,23 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="7">
+      <c r="C82">
         <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="7">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83">
         <v>70</v>
       </c>
       <c r="D83" s="4">
@@ -48444,12 +48471,12 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="7">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84">
         <v>70</v>
       </c>
       <c r="D84" s="4">
@@ -48458,12 +48485,12 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="7">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
         <v>70</v>
       </c>
       <c r="D85" s="4">
@@ -48472,12 +48499,12 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="7">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
         <v>70</v>
       </c>
       <c r="D86" s="4">
@@ -48486,12 +48513,12 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="7">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
         <v>70</v>
       </c>
       <c r="D87" s="4">
@@ -48500,12 +48527,12 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="7">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88">
         <v>70</v>
       </c>
       <c r="D88" s="4">
@@ -48514,12 +48541,12 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="7">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89">
         <v>70</v>
       </c>
       <c r="D89" s="4">
@@ -48528,12 +48555,12 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="7">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90">
         <v>70</v>
       </c>
       <c r="D90" s="4">
@@ -48542,12 +48569,12 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="7">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
         <v>70</v>
       </c>
       <c r="D91" s="4">
@@ -48556,12 +48583,12 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C92" s="7">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92">
         <v>80</v>
       </c>
       <c r="D92" s="4">
@@ -48570,12 +48597,12 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="7">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
         <v>80</v>
       </c>
       <c r="D93" s="4">
@@ -48584,12 +48611,12 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="7">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
         <v>80</v>
       </c>
       <c r="D94" s="4">
@@ -48598,12 +48625,12 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="7">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
         <v>80</v>
       </c>
       <c r="D95" s="4">
@@ -48612,12 +48639,12 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" s="7">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
         <v>80</v>
       </c>
       <c r="D96" s="4">
@@ -48626,12 +48653,12 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="7">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
         <v>80</v>
       </c>
       <c r="D97" s="4">
@@ -48640,12 +48667,12 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="7">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98">
         <v>80</v>
       </c>
       <c r="D98" s="4">
@@ -48654,12 +48681,12 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="7">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
         <v>80</v>
       </c>
       <c r="D99" s="4">
@@ -48668,23 +48695,23 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="7">
+      <c r="C100">
         <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="7">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101">
         <v>80</v>
       </c>
       <c r="D101" s="4">
@@ -48693,12 +48720,12 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="7">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102">
         <v>80</v>
       </c>
       <c r="D102" s="4">
@@ -48707,12 +48734,12 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="7">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103">
         <v>80</v>
       </c>
       <c r="D103" s="4">
@@ -48721,12 +48748,12 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104" s="7">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104">
         <v>80</v>
       </c>
       <c r="D104" s="4">
@@ -48735,12 +48762,12 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="7">
+        <v>18</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
         <v>80</v>
       </c>
       <c r="D105" s="4">
@@ -48749,12 +48776,12 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="7">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106">
         <v>80</v>
       </c>
       <c r="D106" s="4">
@@ -48763,12 +48790,12 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="7">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107">
         <v>80</v>
       </c>
       <c r="D107" s="4">
@@ -48777,12 +48804,12 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="7">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108">
         <v>80</v>
       </c>
       <c r="D108" s="4">
@@ -48791,12 +48818,12 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="7">
+        <v>22</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109">
         <v>80</v>
       </c>
       <c r="D109" s="4">
@@ -48805,12 +48832,12 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="7">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
         <v>90</v>
       </c>
       <c r="D110" s="5">
@@ -48819,12 +48846,12 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="7">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
         <v>90</v>
       </c>
       <c r="D111" s="3">
@@ -48833,12 +48860,12 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="7">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112">
         <v>90</v>
       </c>
       <c r="D112" s="3">
@@ -48847,12 +48874,12 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="7">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
         <v>90</v>
       </c>
       <c r="D113" s="3">
@@ -48861,12 +48888,12 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="7">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
         <v>90</v>
       </c>
       <c r="D114" s="3">
@@ -48875,12 +48902,12 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="7">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
         <v>90</v>
       </c>
       <c r="D115" s="3">
@@ -48889,12 +48916,12 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="7">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
         <v>90</v>
       </c>
       <c r="D116" s="3">
@@ -48903,12 +48930,12 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="7">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
         <v>90</v>
       </c>
       <c r="D117" s="3">
@@ -48917,23 +48944,23 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s">
         <v>23</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="7">
+      <c r="C118">
         <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" s="7">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
         <v>90</v>
       </c>
       <c r="D119" s="4">
@@ -48942,12 +48969,12 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="7">
+        <v>15</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120">
         <v>90</v>
       </c>
       <c r="D120" s="4">
@@ -48956,12 +48983,12 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="7">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121">
         <v>90</v>
       </c>
       <c r="D121" s="4">
@@ -48970,12 +48997,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="7">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122">
         <v>90</v>
       </c>
       <c r="D122" s="4">
@@ -48984,12 +49011,12 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="7">
+        <v>18</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
         <v>90</v>
       </c>
       <c r="D123" s="4">
@@ -48998,12 +49025,12 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="7">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
         <v>90</v>
       </c>
       <c r="D124" s="4">
@@ -49012,12 +49039,12 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="7">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125">
         <v>90</v>
       </c>
       <c r="D125" s="4">
@@ -49026,12 +49053,12 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="7">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126">
         <v>90</v>
       </c>
       <c r="D126" s="4">
@@ -49040,12 +49067,12 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="7">
+        <v>22</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127">
         <v>90</v>
       </c>
       <c r="D127" s="4">
@@ -49054,12 +49081,12 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="7">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128">
         <v>100</v>
       </c>
       <c r="D128" s="4">
@@ -49068,12 +49095,12 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="7">
+        <v>15</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129">
         <v>100</v>
       </c>
       <c r="D129" s="4">
@@ -49082,12 +49109,12 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="7">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
         <v>100</v>
       </c>
       <c r="D130" s="4">
@@ -49096,12 +49123,12 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="7">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
         <v>100</v>
       </c>
       <c r="D131" s="4">
@@ -49110,12 +49137,12 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="7">
+        <v>18</v>
+      </c>
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
         <v>100</v>
       </c>
       <c r="D132" s="4">
@@ -49124,12 +49151,12 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="7">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
         <v>100</v>
       </c>
       <c r="D133" s="4">
@@ -49138,12 +49165,12 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="7">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
         <v>100</v>
       </c>
       <c r="D134" s="4">
@@ -49152,12 +49179,12 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="7">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
         <v>100</v>
       </c>
       <c r="D135" s="4">
@@ -49166,24 +49193,24 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="7">
+      <c r="C136">
         <v>100</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="7">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137">
         <v>100</v>
       </c>
       <c r="D137" s="4">
@@ -49192,12 +49219,12 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="7">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138">
         <v>100</v>
       </c>
       <c r="D138" s="4">
@@ -49206,12 +49233,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="7">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139">
         <v>100</v>
       </c>
       <c r="D139" s="4">
@@ -49220,12 +49247,12 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="7">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
         <v>100</v>
       </c>
       <c r="D140" s="4">
@@ -49234,12 +49261,12 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="7">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141">
         <v>100</v>
       </c>
       <c r="D141" s="4">
@@ -49248,12 +49275,12 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" s="7">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142">
         <v>100</v>
       </c>
       <c r="D142" s="4">
@@ -49262,12 +49289,12 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143" s="7">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143">
         <v>100</v>
       </c>
       <c r="D143" s="4">
@@ -49276,12 +49303,12 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="7">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144">
         <v>100</v>
       </c>
       <c r="D144" s="4">
@@ -49290,12 +49317,12 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="7">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145">
         <v>100</v>
       </c>
       <c r="D145" s="4">
@@ -49312,7 +49339,7 @@
   <dimension ref="A1:C772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49323,13 +49350,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -49884,57 +49911,57 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>43.479097000000003</v>
+        <v>43.482208999999997</v>
       </c>
       <c r="C52">
-        <v>-80.474475999999996</v>
+        <v>-80.482545000000002</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>43.477227999999997</v>
+        <v>43.479097000000003</v>
       </c>
       <c r="C53">
-        <v>-80.466438999999994</v>
+        <v>-80.474475999999996</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>43.478237</v>
+        <v>43.477227999999997</v>
       </c>
       <c r="C54">
-        <v>-80.471958999999998</v>
+        <v>-80.466438999999994</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>43.481118000000002</v>
+        <v>43.478237</v>
       </c>
       <c r="C55">
-        <v>-80.479940999999997</v>
+        <v>-80.471958999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>43.482208999999997</v>
+        <v>43.481118000000002</v>
       </c>
       <c r="C56">
-        <v>-80.482545000000002</v>
+        <v>-80.479940999999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -51468,1239 +51495,1239 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196">
-        <v>43.431691999999998</v>
+        <v>43.382072999999998</v>
       </c>
       <c r="C196">
-        <v>-80.525541000000004</v>
+        <v>-80.488690000000005</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197">
-        <v>43.382072999999998</v>
+        <v>43.431691999999998</v>
       </c>
       <c r="C197">
-        <v>-80.488690000000005</v>
+        <v>-80.525541000000004</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198">
-        <v>43.423482</v>
+        <v>43.382072999999998</v>
       </c>
       <c r="C198">
-        <v>-80.519030999999998</v>
+        <v>-80.488690000000005</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199">
-        <v>43.416809999999998</v>
+        <v>43.423482</v>
       </c>
       <c r="C199">
-        <v>-80.511341000000002</v>
+        <v>-80.519030999999998</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200">
-        <v>43.374563999999999</v>
+        <v>43.416809999999998</v>
       </c>
       <c r="C200">
-        <v>-80.485830000000007</v>
+        <v>-80.511341000000002</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201">
-        <v>43.428739999999998</v>
+        <v>43.374563999999999</v>
       </c>
       <c r="C201">
-        <v>-80.523612999999997</v>
+        <v>-80.485830000000007</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202">
-        <v>43.403838</v>
+        <v>43.428739999999998</v>
       </c>
       <c r="C202">
-        <v>-80.497221999999994</v>
+        <v>-80.523612999999997</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
-        <v>43.396160000000002</v>
+        <v>43.403838</v>
       </c>
       <c r="C203">
-        <v>-80.494770000000003</v>
+        <v>-80.497221999999994</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204">
-        <v>43.386887000000002</v>
+        <v>43.396160000000002</v>
       </c>
       <c r="C204">
-        <v>-80.490267000000003</v>
+        <v>-80.494770000000003</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205">
-        <v>43.384033000000002</v>
+        <v>43.386887000000002</v>
       </c>
       <c r="C205">
-        <v>-80.489339999999999</v>
+        <v>-80.490267000000003</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206">
-        <v>43.439314000000003</v>
+        <v>43.384033000000002</v>
       </c>
       <c r="C206">
-        <v>-80.535340000000005</v>
+        <v>-80.489339999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207">
-        <v>43.427247999999999</v>
+        <v>43.439314000000003</v>
       </c>
       <c r="C207">
-        <v>-80.522512000000006</v>
+        <v>-80.535340000000005</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208">
-        <v>43.436450999999998</v>
+        <v>43.427247999999999</v>
       </c>
       <c r="C208">
-        <v>-80.529027999999997</v>
+        <v>-80.522512000000006</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209">
-        <v>43.382072999999998</v>
+        <v>43.436450999999998</v>
       </c>
       <c r="C209">
-        <v>-80.488690000000005</v>
+        <v>-80.529027999999997</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210">
-        <v>43.444012999999998</v>
+        <v>43.382072999999998</v>
       </c>
       <c r="C210">
-        <v>-80.545186000000001</v>
+        <v>-80.488690000000005</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211">
-        <v>43.383764999999997</v>
+        <v>43.444012999999998</v>
       </c>
       <c r="C211">
-        <v>-80.489250999999996</v>
+        <v>-80.545186000000001</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212">
-        <v>43.406091000000004</v>
+        <v>43.383764999999997</v>
       </c>
       <c r="C212">
-        <v>-80.499678000000003</v>
+        <v>-80.489250999999996</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213">
-        <v>43.452750000000002</v>
+        <v>43.406091000000004</v>
       </c>
       <c r="C213">
-        <v>-80.496066999999996</v>
+        <v>-80.499678000000003</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214">
-        <v>43.452288000000003</v>
+        <v>43.452750000000002</v>
       </c>
       <c r="C214">
-        <v>-80.496376999999995</v>
+        <v>-80.496066999999996</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215">
-        <v>43.451779000000002</v>
+        <v>43.452288000000003</v>
       </c>
       <c r="C215">
-        <v>-80.496663999999996</v>
+        <v>-80.496376999999995</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216">
-        <v>43.452288000000003</v>
+        <v>43.451779000000002</v>
       </c>
       <c r="C216">
-        <v>-80.496376999999995</v>
+        <v>-80.496663999999996</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217">
-        <v>43.459400000000002</v>
+        <v>43.452288000000003</v>
       </c>
       <c r="C217">
-        <v>-80.469633000000002</v>
+        <v>-80.496376999999995</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218">
-        <v>43.464939999999999</v>
+        <v>43.459400000000002</v>
       </c>
       <c r="C218">
-        <v>-80.458534</v>
+        <v>-80.469633000000002</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219">
-        <v>43.459898000000003</v>
+        <v>43.464939999999999</v>
       </c>
       <c r="C219">
-        <v>-80.468074999999999</v>
+        <v>-80.458534</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220">
-        <v>43.455638</v>
+        <v>43.459898000000003</v>
       </c>
       <c r="C220">
-        <v>-80.478136000000006</v>
+        <v>-80.468074999999999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221">
-        <v>43.450313000000001</v>
+        <v>43.455638</v>
       </c>
       <c r="C221">
-        <v>-80.486948999999996</v>
+        <v>-80.478136000000006</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222">
-        <v>43.457132999999999</v>
+        <v>43.450313000000001</v>
       </c>
       <c r="C222">
-        <v>-80.475301999999999</v>
+        <v>-80.486948999999996</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223">
-        <v>43.456840999999997</v>
+        <v>43.457132999999999</v>
       </c>
       <c r="C223">
-        <v>-80.475845000000007</v>
+        <v>-80.475301999999999</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224">
-        <v>43.458347000000003</v>
+        <v>43.456840999999997</v>
       </c>
       <c r="C224">
-        <v>-80.472894999999994</v>
+        <v>-80.475845000000007</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225">
-        <v>43.460399000000002</v>
+        <v>43.458347000000003</v>
       </c>
       <c r="C225">
-        <v>-80.466476</v>
+        <v>-80.472894999999994</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226">
-        <v>43.456650000000003</v>
+        <v>43.460399000000002</v>
       </c>
       <c r="C226">
-        <v>-80.476242999999997</v>
+        <v>-80.466476</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227">
-        <v>43.454616000000001</v>
+        <v>43.456650000000003</v>
       </c>
       <c r="C227">
-        <v>-80.480046999999999</v>
+        <v>-80.476242999999997</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228">
-        <v>43.449674000000002</v>
+        <v>43.454616000000001</v>
       </c>
       <c r="C228">
-        <v>-80.487361000000007</v>
+        <v>-80.480046999999999</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229">
-        <v>43.452537999999997</v>
+        <v>43.449674000000002</v>
       </c>
       <c r="C229">
-        <v>-80.483963000000003</v>
+        <v>-80.487361000000007</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230">
-        <v>43.449174999999997</v>
+        <v>43.452537999999997</v>
       </c>
       <c r="C230">
-        <v>-80.487665000000007</v>
+        <v>-80.483963000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231">
-        <v>43.453710000000001</v>
+        <v>43.449174999999997</v>
       </c>
       <c r="C231">
-        <v>-80.481810999999993</v>
+        <v>-80.487665000000007</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232">
-        <v>43.456150000000001</v>
+        <v>43.453710000000001</v>
       </c>
       <c r="C232">
-        <v>-80.477187000000001</v>
+        <v>-80.481810999999993</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233">
-        <v>43.461024999999999</v>
+        <v>43.456150000000001</v>
       </c>
       <c r="C233">
-        <v>-80.464498000000006</v>
+        <v>-80.477187000000001</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234">
-        <v>43.455823000000002</v>
+        <v>43.461024999999999</v>
       </c>
       <c r="C234">
-        <v>-80.477788000000004</v>
+        <v>-80.464498000000006</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235">
-        <v>43.456330999999999</v>
+        <v>43.455823000000002</v>
       </c>
       <c r="C235">
-        <v>-80.476843000000002</v>
+        <v>-80.477788000000004</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236">
-        <v>43.452936999999999</v>
+        <v>43.456330999999999</v>
       </c>
       <c r="C236">
-        <v>-80.483227999999997</v>
+        <v>-80.476843000000002</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237">
-        <v>43.455137999999998</v>
+        <v>43.452936999999999</v>
       </c>
       <c r="C237">
-        <v>-80.479068999999996</v>
+        <v>-80.483227999999997</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238">
-        <v>43.461981000000002</v>
+        <v>43.455137999999998</v>
       </c>
       <c r="C238">
-        <v>-80.461477000000002</v>
+        <v>-80.479068999999996</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239">
-        <v>43.45478</v>
+        <v>43.461981000000002</v>
       </c>
       <c r="C239">
-        <v>-80.479766999999995</v>
+        <v>-80.461477000000002</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240">
-        <v>43.455302000000003</v>
+        <v>43.45478</v>
       </c>
       <c r="C240">
-        <v>-80.478764999999996</v>
+        <v>-80.479766999999995</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241">
-        <v>43.451934999999999</v>
+        <v>43.455302000000003</v>
       </c>
       <c r="C241">
-        <v>-80.485094000000004</v>
+        <v>-80.478764999999996</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242">
-        <v>43.463543000000001</v>
+        <v>43.451934999999999</v>
       </c>
       <c r="C242">
-        <v>-80.459658000000005</v>
+        <v>-80.485094000000004</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243">
-        <v>43.451349</v>
+        <v>43.463543000000001</v>
       </c>
       <c r="C243">
-        <v>-80.486113000000003</v>
+        <v>-80.459658000000005</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244">
-        <v>43.468009000000002</v>
+        <v>43.451349</v>
       </c>
       <c r="C244">
-        <v>-80.474914999999996</v>
+        <v>-80.486113000000003</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245">
-        <v>43.437820000000002</v>
+        <v>43.468009000000002</v>
       </c>
       <c r="C245">
-        <v>-80.492185000000006</v>
+        <v>-80.474914999999996</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246">
-        <v>43.433323000000001</v>
+        <v>43.437820000000002</v>
       </c>
       <c r="C246">
-        <v>-80.489168000000006</v>
+        <v>-80.492185000000006</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247">
-        <v>43.430435000000003</v>
+        <v>43.433323000000001</v>
       </c>
       <c r="C247">
-        <v>-80.487296000000001</v>
+        <v>-80.489168000000006</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248">
-        <v>43.435423</v>
+        <v>43.430435000000003</v>
       </c>
       <c r="C248">
-        <v>-80.490573999999995</v>
+        <v>-80.487296000000001</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249">
-        <v>43.441020999999999</v>
+        <v>43.435423</v>
       </c>
       <c r="C249">
-        <v>-80.498131000000001</v>
+        <v>-80.490573999999995</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250">
-        <v>43.440295999999996</v>
+        <v>43.441020999999999</v>
       </c>
       <c r="C250">
-        <v>-80.496206000000001</v>
+        <v>-80.498131000000001</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251">
-        <v>43.438862999999998</v>
+        <v>43.440295999999996</v>
       </c>
       <c r="C251">
-        <v>-80.493167999999997</v>
+        <v>-80.496206000000001</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252">
-        <v>43.436295999999999</v>
+        <v>43.438862999999998</v>
       </c>
       <c r="C252">
-        <v>-80.491157000000001</v>
+        <v>-80.493167999999997</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253">
-        <v>43.440624999999997</v>
+        <v>43.436295999999999</v>
       </c>
       <c r="C253">
-        <v>-80.497066000000004</v>
+        <v>-80.491157000000001</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254">
-        <v>43.439647000000001</v>
+        <v>43.440624999999997</v>
       </c>
       <c r="C254">
-        <v>-80.507626000000002</v>
+        <v>-80.497066000000004</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255">
-        <v>43.437539999999998</v>
+        <v>43.439647000000001</v>
       </c>
       <c r="C255">
-        <v>-80.511302000000001</v>
+        <v>-80.507626000000002</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256">
-        <v>43.433140000000002</v>
+        <v>43.437539999999998</v>
       </c>
       <c r="C256">
-        <v>-80.521726999999998</v>
+        <v>-80.511302000000001</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257">
-        <v>43.433847</v>
+        <v>43.433140000000002</v>
       </c>
       <c r="C257">
-        <v>-80.519828000000004</v>
+        <v>-80.521726999999998</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258">
-        <v>43.431691999999998</v>
+        <v>43.433847</v>
       </c>
       <c r="C258">
-        <v>-80.525541000000004</v>
+        <v>-80.519828000000004</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259">
-        <v>43.441187999999997</v>
+        <v>43.431691999999998</v>
       </c>
       <c r="C259">
-        <v>-80.499868000000006</v>
+        <v>-80.525541000000004</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260">
-        <v>43.421908000000002</v>
+        <v>43.441187999999997</v>
       </c>
       <c r="C260">
-        <v>-80.556524999999993</v>
+        <v>-80.499868000000006</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261">
-        <v>43.435231000000002</v>
+        <v>43.421908000000002</v>
       </c>
       <c r="C261">
-        <v>-80.516101000000006</v>
+        <v>-80.556524999999993</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262">
-        <v>43.432454</v>
+        <v>43.435231000000002</v>
       </c>
       <c r="C262">
-        <v>-80.523516000000001</v>
+        <v>-80.516101000000006</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263">
-        <v>43.423000999999999</v>
+        <v>43.432454</v>
       </c>
       <c r="C263">
-        <v>-80.552982</v>
+        <v>-80.523516000000001</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264">
-        <v>43.438183000000002</v>
+        <v>43.423000999999999</v>
       </c>
       <c r="C264">
-        <v>-80.510180000000005</v>
+        <v>-80.552982</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B265">
-        <v>43.440168</v>
+        <v>43.423000999999999</v>
       </c>
       <c r="C265">
-        <v>-80.506724000000006</v>
+        <v>-80.552982</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B266">
-        <v>43.440776</v>
+        <v>43.438183000000002</v>
       </c>
       <c r="C266">
-        <v>-80.504508999999999</v>
+        <v>-80.510180000000005</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B267">
-        <v>43.441020999999999</v>
+        <v>43.440168</v>
       </c>
       <c r="C267">
-        <v>-80.498131000000001</v>
+        <v>-80.506724000000006</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B268">
-        <v>43.439024000000003</v>
+        <v>43.440776</v>
       </c>
       <c r="C268">
-        <v>-80.508711000000005</v>
+        <v>-80.504508999999999</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B269">
-        <v>43.441138000000002</v>
+        <v>43.441020999999999</v>
       </c>
       <c r="C269">
-        <v>-80.502553000000006</v>
+        <v>-80.498131000000001</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B270">
-        <v>43.441234000000001</v>
+        <v>43.439024000000003</v>
       </c>
       <c r="C270">
-        <v>-80.502069000000006</v>
+        <v>-80.508711000000005</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B271">
-        <v>43.425170999999999</v>
+        <v>43.441138000000002</v>
       </c>
       <c r="C271">
-        <v>-80.544152999999994</v>
+        <v>-80.502553000000006</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B272">
-        <v>43.429533999999997</v>
+        <v>43.441234000000001</v>
       </c>
       <c r="C272">
-        <v>-80.531471999999994</v>
+        <v>-80.502069000000006</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B273">
-        <v>43.435926000000002</v>
+        <v>43.425170999999999</v>
       </c>
       <c r="C273">
-        <v>-80.514251000000002</v>
+        <v>-80.544152999999994</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B274">
-        <v>43.430435000000003</v>
+        <v>43.429533999999997</v>
       </c>
       <c r="C274">
-        <v>-80.487296000000001</v>
+        <v>-80.531471999999994</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B275">
-        <v>43.385401000000002</v>
+        <v>43.435926000000002</v>
       </c>
       <c r="C275">
-        <v>-80.406989999999993</v>
+        <v>-80.514251000000002</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B276">
-        <v>43.386132000000003</v>
+        <v>43.430435000000003</v>
       </c>
       <c r="C276">
-        <v>-80.409542000000002</v>
+        <v>-80.487296000000001</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B277">
-        <v>43.386575999999998</v>
+        <v>43.385401000000002</v>
       </c>
       <c r="C277">
-        <v>-80.410923999999994</v>
+        <v>-80.406989999999993</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B278">
-        <v>43.402050000000003</v>
+        <v>43.386132000000003</v>
       </c>
       <c r="C278">
-        <v>-80.456892999999994</v>
+        <v>-80.409542000000002</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B279">
-        <v>43.405748000000003</v>
+        <v>43.386575999999998</v>
       </c>
       <c r="C279">
-        <v>-80.458102999999994</v>
+        <v>-80.410923999999994</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B280">
-        <v>43.410082000000003</v>
+        <v>43.402050000000003</v>
       </c>
       <c r="C280">
-        <v>-80.461202999999998</v>
+        <v>-80.456892999999994</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B281">
-        <v>43.418177</v>
+        <v>43.405748000000003</v>
       </c>
       <c r="C281">
-        <v>-80.470607999999999</v>
+        <v>-80.458102999999994</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B282">
-        <v>43.429267000000003</v>
+        <v>43.410082000000003</v>
       </c>
       <c r="C282">
-        <v>-80.488281999999998</v>
+        <v>-80.461202999999998</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B283">
-        <v>43.428390999999998</v>
+        <v>43.418177</v>
       </c>
       <c r="C283">
-        <v>-80.485837000000004</v>
+        <v>-80.470607999999999</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B284">
-        <v>43.386907999999998</v>
+        <v>43.429267000000003</v>
       </c>
       <c r="C284">
-        <v>-80.412008</v>
+        <v>-80.488281999999998</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B285">
-        <v>43.389729000000003</v>
+        <v>43.428390999999998</v>
       </c>
       <c r="C285">
-        <v>-80.421662999999995</v>
+        <v>-80.485837000000004</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B286">
-        <v>43.399037999999997</v>
+        <v>43.386907999999998</v>
       </c>
       <c r="C286">
-        <v>-80.447012000000001</v>
+        <v>-80.412008</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B287">
-        <v>43.423642000000001</v>
+        <v>43.389729000000003</v>
       </c>
       <c r="C287">
-        <v>-80.475869000000003</v>
+        <v>-80.421662999999995</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B288">
-        <v>43.429529000000002</v>
+        <v>43.399037999999997</v>
       </c>
       <c r="C288">
-        <v>-80.488994000000005</v>
+        <v>-80.447012000000001</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B289">
-        <v>43.400393000000001</v>
+        <v>43.423642000000001</v>
       </c>
       <c r="C289">
-        <v>-80.456181999999998</v>
+        <v>-80.475869000000003</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B290">
-        <v>43.398578999999998</v>
+        <v>43.429529000000002</v>
       </c>
       <c r="C290">
-        <v>-80.449817999999993</v>
+        <v>-80.488994000000005</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B291">
-        <v>43.399526999999999</v>
+        <v>43.400393000000001</v>
       </c>
       <c r="C291">
-        <v>-80.438055000000006</v>
+        <v>-80.456181999999998</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B292">
-        <v>43.391520999999997</v>
+        <v>43.398578999999998</v>
       </c>
       <c r="C292">
-        <v>-80.427132999999998</v>
+        <v>-80.449817999999993</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B293">
-        <v>43.426670999999999</v>
+        <v>43.399526999999999</v>
       </c>
       <c r="C293">
-        <v>-80.482575999999995</v>
+        <v>-80.438055000000006</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B294">
-        <v>43.395361000000001</v>
+        <v>43.399526999999999</v>
       </c>
       <c r="C294">
-        <v>-80.431939</v>
+        <v>-80.438055000000006</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B295">
-        <v>43.38035</v>
+        <v>43.391520999999997</v>
       </c>
       <c r="C295">
-        <v>-80.49973</v>
+        <v>-80.427132999999998</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B296">
-        <v>43.396407000000004</v>
+        <v>43.426670999999999</v>
       </c>
       <c r="C296">
-        <v>-80.461993000000007</v>
+        <v>-80.482575999999995</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B297">
-        <v>43.387656</v>
+        <v>43.426670999999999</v>
       </c>
       <c r="C297">
-        <v>-80.473681999999997</v>
+        <v>-80.482575999999995</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="B298">
-        <v>43.382072999999998</v>
+        <v>43.395361000000001</v>
       </c>
       <c r="C298">
-        <v>-80.488690000000005</v>
+        <v>-80.431939</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B299">
-        <v>43.399526999999999</v>
+        <v>43.38035</v>
       </c>
       <c r="C299">
-        <v>-80.438055000000006</v>
+        <v>-80.49973</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B300">
-        <v>43.399025000000002</v>
+        <v>43.396407000000004</v>
       </c>
       <c r="C300">
-        <v>-80.453689999999995</v>
+        <v>-80.461993000000007</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B301">
-        <v>43.397869999999998</v>
+        <v>43.387656</v>
       </c>
       <c r="C301">
-        <v>-80.456988999999993</v>
+        <v>-80.473681999999997</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B302">
-        <v>43.397768999999997</v>
+        <v>43.399025000000002</v>
       </c>
       <c r="C302">
-        <v>-80.457612999999995</v>
+        <v>-80.453689999999995</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B303">
-        <v>43.381328000000003</v>
+        <v>43.397869999999998</v>
       </c>
       <c r="C303">
-        <v>-80.494076000000007</v>
+        <v>-80.456988999999993</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B304">
-        <v>43.397627999999997</v>
+        <v>43.397768999999997</v>
       </c>
       <c r="C304">
-        <v>-80.458438999999998</v>
+        <v>-80.457612999999995</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B305">
-        <v>43.388972000000003</v>
+        <v>43.381328000000003</v>
       </c>
       <c r="C305">
-        <v>-80.471738000000002</v>
+        <v>-80.494076000000007</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B306">
-        <v>43.387656</v>
+        <v>43.397627999999997</v>
       </c>
       <c r="C306">
-        <v>-80.473681999999997</v>
+        <v>-80.458438999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B307">
-        <v>43.380769000000001</v>
+        <v>43.388972000000003</v>
       </c>
       <c r="C307">
-        <v>-80.497322999999994</v>
+        <v>-80.471738000000002</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B308">
         <v>43.387656</v>
@@ -52711,1938 +52738,1938 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B309">
-        <v>43.392082000000002</v>
+        <v>43.380769000000001</v>
       </c>
       <c r="C309">
-        <v>-80.466559000000004</v>
+        <v>-80.497322999999994</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B310">
-        <v>43.394438999999998</v>
+        <v>43.387656</v>
       </c>
       <c r="C310">
-        <v>-80.464218000000002</v>
+        <v>-80.473681999999997</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B311">
-        <v>43.383110000000002</v>
+        <v>43.392082000000002</v>
       </c>
       <c r="C311">
-        <v>-80.483502000000001</v>
+        <v>-80.466559000000004</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B312">
-        <v>43.389206000000001</v>
+        <v>43.394438999999998</v>
       </c>
       <c r="C312">
-        <v>-80.401545999999996</v>
+        <v>-80.464218000000002</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B313">
-        <v>43.399783999999997</v>
+        <v>43.383110000000002</v>
       </c>
       <c r="C313">
-        <v>-80.383025000000004</v>
+        <v>-80.483502000000001</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B314">
-        <v>43.379936000000001</v>
+        <v>43.389206000000001</v>
       </c>
       <c r="C314">
-        <v>-80.408116000000007</v>
+        <v>-80.401545999999996</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B315">
-        <v>43.384115000000001</v>
+        <v>43.399783999999997</v>
       </c>
       <c r="C315">
-        <v>-80.405770000000004</v>
+        <v>-80.383025000000004</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B316">
-        <v>43.402222999999999</v>
+        <v>43.379936000000001</v>
       </c>
       <c r="C316">
-        <v>-80.378620999999995</v>
+        <v>-80.408116000000007</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B317">
-        <v>43.380037999999999</v>
+        <v>43.384115000000001</v>
       </c>
       <c r="C317">
-        <v>-80.407839999999993</v>
+        <v>-80.405770000000004</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B318">
-        <v>43.399065</v>
+        <v>43.402222999999999</v>
       </c>
       <c r="C318">
-        <v>-80.383943000000002</v>
+        <v>-80.378620999999995</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B319">
-        <v>43.38552</v>
+        <v>43.380037999999999</v>
       </c>
       <c r="C319">
-        <v>-80.404669999999996</v>
+        <v>-80.407839999999993</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B320">
-        <v>43.390431999999997</v>
+        <v>43.399065</v>
       </c>
       <c r="C320">
-        <v>-80.399427000000003</v>
+        <v>-80.383943000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B321">
-        <v>43.369861</v>
+        <v>43.38552</v>
       </c>
       <c r="C321">
-        <v>-80.413608999999994</v>
+        <v>-80.404669999999996</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B322">
-        <v>43.434429999999999</v>
+        <v>43.390431999999997</v>
       </c>
       <c r="C322">
-        <v>-80.557278999999994</v>
+        <v>-80.399427000000003</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="B323">
-        <v>43.423000999999999</v>
+        <v>43.369861</v>
       </c>
       <c r="C323">
-        <v>-80.552982</v>
+        <v>-80.413608999999994</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B324">
-        <v>43.414912000000001</v>
+        <v>43.434429999999999</v>
       </c>
       <c r="C324">
-        <v>-80.552843999999993</v>
+        <v>-80.557278999999994</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325">
-        <v>43.417940999999999</v>
+        <v>43.414912000000001</v>
       </c>
       <c r="C325">
-        <v>-80.552803999999995</v>
+        <v>-80.552843999999993</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326">
-        <v>43.435523000000003</v>
+        <v>43.417940999999999</v>
       </c>
       <c r="C326">
-        <v>-80.558414999999997</v>
+        <v>-80.552803999999995</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327">
-        <v>43.428975000000001</v>
+        <v>43.435523000000003</v>
       </c>
       <c r="C327">
-        <v>-80.553089</v>
+        <v>-80.558414999999997</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328">
-        <v>43.411740999999999</v>
+        <v>43.428975000000001</v>
       </c>
       <c r="C328">
-        <v>-80.550933000000001</v>
+        <v>-80.553089</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329">
-        <v>43.434786000000003</v>
+        <v>43.411740999999999</v>
       </c>
       <c r="C329">
-        <v>-80.452720999999997</v>
+        <v>-80.550933000000001</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330">
-        <v>43.436886999999999</v>
+        <v>43.434786000000003</v>
       </c>
       <c r="C330">
-        <v>-80.458898000000005</v>
+        <v>-80.452720999999997</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331">
-        <v>43.427529</v>
+        <v>43.436886999999999</v>
       </c>
       <c r="C331">
-        <v>-80.436882999999995</v>
+        <v>-80.458898000000005</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332">
-        <v>43.433290999999997</v>
+        <v>43.427529</v>
       </c>
       <c r="C332">
-        <v>-80.447900000000004</v>
+        <v>-80.436882999999995</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333">
-        <v>43.411499999999997</v>
+        <v>43.433290999999997</v>
       </c>
       <c r="C333">
-        <v>-80.394638</v>
+        <v>-80.447900000000004</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334">
-        <v>43.41666</v>
+        <v>43.411499999999997</v>
       </c>
       <c r="C334">
-        <v>-80.409863999999999</v>
+        <v>-80.394638</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335">
-        <v>43.407846999999997</v>
+        <v>43.41666</v>
       </c>
       <c r="C335">
-        <v>-80.385710000000003</v>
+        <v>-80.409863999999999</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336">
-        <v>43.425077999999999</v>
+        <v>43.407846999999997</v>
       </c>
       <c r="C336">
-        <v>-80.432345999999995</v>
+        <v>-80.385710000000003</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337">
-        <v>43.435853999999999</v>
+        <v>43.425077999999999</v>
       </c>
       <c r="C337">
-        <v>-80.455201000000002</v>
+        <v>-80.432345999999995</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338">
-        <v>43.404308999999998</v>
+        <v>43.435853999999999</v>
       </c>
       <c r="C338">
-        <v>-80.379418999999999</v>
+        <v>-80.455201000000002</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339">
-        <v>43.427788</v>
+        <v>43.404308999999998</v>
       </c>
       <c r="C339">
-        <v>-80.436751000000001</v>
+        <v>-80.379418999999999</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340">
-        <v>43.409742000000001</v>
+        <v>43.427788</v>
       </c>
       <c r="C340">
-        <v>-80.389482999999998</v>
+        <v>-80.436751000000001</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341">
-        <v>43.408648999999997</v>
+        <v>43.409742000000001</v>
       </c>
       <c r="C341">
-        <v>-80.386788999999993</v>
+        <v>-80.389482999999998</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342">
-        <v>43.415241000000002</v>
+        <v>43.408648999999997</v>
       </c>
       <c r="C342">
-        <v>-80.406210999999999</v>
+        <v>-80.386788999999993</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343">
-        <v>43.430430000000001</v>
+        <v>43.415241000000002</v>
       </c>
       <c r="C343">
-        <v>-80.43974</v>
+        <v>-80.406210999999999</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344">
-        <v>43.412928999999998</v>
+        <v>43.430430000000001</v>
       </c>
       <c r="C344">
-        <v>-80.397689999999997</v>
+        <v>-80.43974</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345">
-        <v>43.43383</v>
+        <v>43.412928999999998</v>
       </c>
       <c r="C345">
-        <v>-80.448856000000006</v>
+        <v>-80.397689999999997</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346">
-        <v>43.402524999999997</v>
+        <v>43.43383</v>
       </c>
       <c r="C346">
-        <v>-80.380414000000002</v>
+        <v>-80.448856000000006</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347">
-        <v>43.403292999999998</v>
+        <v>43.402524999999997</v>
       </c>
       <c r="C347">
-        <v>-80.382510999999994</v>
+        <v>-80.380414000000002</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348">
-        <v>43.402442999999998</v>
+        <v>43.403292999999998</v>
       </c>
       <c r="C348">
-        <v>-80.380238000000006</v>
+        <v>-80.382510999999994</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349">
-        <v>43.445616000000001</v>
+        <v>43.402442999999998</v>
       </c>
       <c r="C349">
-        <v>-80.479855000000001</v>
+        <v>-80.380238000000006</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350">
-        <v>43.442824999999999</v>
+        <v>43.445616000000001</v>
       </c>
       <c r="C350">
-        <v>-80.473778999999993</v>
+        <v>-80.479855000000001</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351">
-        <v>43.446075999999998</v>
+        <v>43.442824999999999</v>
       </c>
       <c r="C351">
-        <v>-80.480808999999994</v>
+        <v>-80.473778999999993</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352">
-        <v>43.447327999999999</v>
+        <v>43.446075999999998</v>
       </c>
       <c r="C352">
-        <v>-80.483431999999993</v>
+        <v>-80.480808999999994</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353">
-        <v>43.438465000000001</v>
+        <v>43.447327999999999</v>
       </c>
       <c r="C353">
-        <v>-80.463024000000004</v>
+        <v>-80.483431999999993</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354">
-        <v>43.405686000000003</v>
+        <v>43.438465000000001</v>
       </c>
       <c r="C354">
-        <v>-80.391012000000003</v>
+        <v>-80.463024000000004</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355">
-        <v>43.443258</v>
+        <v>43.405686000000003</v>
       </c>
       <c r="C355">
-        <v>-80.474773999999996</v>
+        <v>-80.391012000000003</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356">
-        <v>43.410921999999999</v>
+        <v>43.443258</v>
       </c>
       <c r="C356">
-        <v>-80.399933000000004</v>
+        <v>-80.474773999999996</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357">
-        <v>43.44473</v>
+        <v>43.410921999999999</v>
       </c>
       <c r="C357">
-        <v>-80.477990000000005</v>
+        <v>-80.399933000000004</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358">
-        <v>43.428476000000003</v>
+        <v>43.44473</v>
       </c>
       <c r="C358">
-        <v>-80.432191000000003</v>
+        <v>-80.477990000000005</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359">
-        <v>43.408099999999997</v>
+        <v>43.428476000000003</v>
       </c>
       <c r="C359">
-        <v>-80.397198000000003</v>
+        <v>-80.432191000000003</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360">
-        <v>43.425463999999998</v>
+        <v>43.408099999999997</v>
       </c>
       <c r="C360">
-        <v>-80.421520000000001</v>
+        <v>-80.397198000000003</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361">
-        <v>43.439208999999998</v>
+        <v>43.425463999999998</v>
       </c>
       <c r="C361">
-        <v>-80.464888000000002</v>
+        <v>-80.421520000000001</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362">
-        <v>43.429769999999998</v>
+        <v>43.439208999999998</v>
       </c>
       <c r="C362">
-        <v>-80.436297999999994</v>
+        <v>-80.464888000000002</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363">
-        <v>43.414234</v>
+        <v>43.429769999999998</v>
       </c>
       <c r="C363">
-        <v>-80.404596999999995</v>
+        <v>-80.436297999999994</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364">
-        <v>43.412374999999997</v>
+        <v>43.414234</v>
       </c>
       <c r="C364">
-        <v>-80.401680999999996</v>
+        <v>-80.404596999999995</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365">
-        <v>43.429234999999998</v>
+        <v>43.412374999999997</v>
       </c>
       <c r="C365">
-        <v>-80.43459</v>
+        <v>-80.401680999999996</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366">
-        <v>43.404373999999997</v>
+        <v>43.429234999999998</v>
       </c>
       <c r="C366">
-        <v>-80.386101999999994</v>
+        <v>-80.43459</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367">
-        <v>43.446694999999998</v>
+        <v>43.404373999999997</v>
       </c>
       <c r="C367">
-        <v>-80.482118</v>
+        <v>-80.386101999999994</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368">
-        <v>43.429119</v>
+        <v>43.446694999999998</v>
       </c>
       <c r="C368">
-        <v>-80.434217000000004</v>
+        <v>-80.482118</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369">
-        <v>43.424622999999997</v>
+        <v>43.429119</v>
       </c>
       <c r="C369">
-        <v>-80.415464999999998</v>
+        <v>-80.434217000000004</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370">
-        <v>43.442335999999997</v>
+        <v>43.424622999999997</v>
       </c>
       <c r="C370">
-        <v>-80.472683000000004</v>
+        <v>-80.415464999999998</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371">
-        <v>43.441898999999999</v>
+        <v>43.442335999999997</v>
       </c>
       <c r="C371">
-        <v>-80.471666999999997</v>
+        <v>-80.472683000000004</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372">
-        <v>43.445165000000003</v>
+        <v>43.441898999999999</v>
       </c>
       <c r="C372">
-        <v>-80.478915999999998</v>
+        <v>-80.471666999999997</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373">
-        <v>43.440201000000002</v>
+        <v>43.445165000000003</v>
       </c>
       <c r="C373">
-        <v>-80.467416999999998</v>
+        <v>-80.478915999999998</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374">
-        <v>43.425114999999998</v>
+        <v>43.440201000000002</v>
       </c>
       <c r="C374">
-        <v>-80.419455999999997</v>
+        <v>-80.467416999999998</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375">
-        <v>43.420211999999999</v>
+        <v>43.425114999999998</v>
       </c>
       <c r="C375">
-        <v>-80.409456000000006</v>
+        <v>-80.419455999999997</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376">
-        <v>43.440717999999997</v>
+        <v>43.420211999999999</v>
       </c>
       <c r="C376">
-        <v>-80.468734999999995</v>
+        <v>-80.409456000000006</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377">
-        <v>43.440598000000001</v>
+        <v>43.440717999999997</v>
       </c>
       <c r="C377">
-        <v>-80.468424999999996</v>
+        <v>-80.468734999999995</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378">
-        <v>43.409317999999999</v>
+        <v>43.440598000000001</v>
       </c>
       <c r="C378">
-        <v>-80.398377999999994</v>
+        <v>-80.468424999999996</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379">
-        <v>43.406632999999999</v>
+        <v>43.409317999999999</v>
       </c>
       <c r="C379">
-        <v>-80.395381</v>
+        <v>-80.398377999999994</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380">
-        <v>43.444293000000002</v>
+        <v>43.406632999999999</v>
       </c>
       <c r="C380">
-        <v>-80.477080000000001</v>
+        <v>-80.395381</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381">
-        <v>43.424405999999998</v>
+        <v>43.444293000000002</v>
       </c>
       <c r="C381">
-        <v>-80.414266999999995</v>
+        <v>-80.477080000000001</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382">
-        <v>43.441104000000003</v>
+        <v>43.424405999999998</v>
       </c>
       <c r="C382">
-        <v>-80.469718</v>
+        <v>-80.414266999999995</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383">
-        <v>43.441201999999997</v>
+        <v>43.441104000000003</v>
       </c>
       <c r="C383">
-        <v>-80.469956999999994</v>
+        <v>-80.469718</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384">
-        <v>43.405313</v>
+        <v>43.441201999999997</v>
       </c>
       <c r="C384">
-        <v>-80.389348999999996</v>
+        <v>-80.469956999999994</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385">
-        <v>43.455041000000001</v>
+        <v>43.405313</v>
       </c>
       <c r="C385">
-        <v>-80.505110000000002</v>
+        <v>-80.389348999999996</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386">
-        <v>43.455278999999997</v>
+        <v>43.455041000000001</v>
       </c>
       <c r="C386">
-        <v>-80.505863000000005</v>
+        <v>-80.505110000000002</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387">
-        <v>43.453780000000002</v>
+        <v>43.455278999999997</v>
       </c>
       <c r="C387">
-        <v>-80.501054999999994</v>
+        <v>-80.505863000000005</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388">
-        <v>43.452288000000003</v>
+        <v>43.453780000000002</v>
       </c>
       <c r="C388">
-        <v>-80.496376999999995</v>
+        <v>-80.501054999999994</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389">
-        <v>43.456552000000002</v>
+        <v>43.452288000000003</v>
       </c>
       <c r="C389">
-        <v>-80.509787000000003</v>
+        <v>-80.496376999999995</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390">
-        <v>43.454807000000002</v>
+        <v>43.456552000000002</v>
       </c>
       <c r="C390">
-        <v>-80.504357999999996</v>
+        <v>-80.509787000000003</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391">
-        <v>43.457704999999997</v>
+        <v>43.454807000000002</v>
       </c>
       <c r="C391">
-        <v>-80.513273999999996</v>
+        <v>-80.504357999999996</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392">
-        <v>43.457102999999996</v>
+        <v>43.457704999999997</v>
       </c>
       <c r="C392">
-        <v>-80.51146</v>
+        <v>-80.513273999999996</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393">
-        <v>43.452838</v>
+        <v>43.457102999999996</v>
       </c>
       <c r="C393">
-        <v>-80.498140000000006</v>
+        <v>-80.51146</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394">
-        <v>43.454391000000001</v>
+        <v>43.452838</v>
       </c>
       <c r="C394">
-        <v>-80.502979999999994</v>
+        <v>-80.498140000000006</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395">
-        <v>43.459449999999997</v>
+        <v>43.454391000000001</v>
       </c>
       <c r="C395">
-        <v>-80.435346999999993</v>
+        <v>-80.502979999999994</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396">
-        <v>43.452412000000002</v>
+        <v>43.459449999999997</v>
       </c>
       <c r="C396">
-        <v>-80.424978999999993</v>
+        <v>-80.435346999999993</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397">
-        <v>43.444581999999997</v>
+        <v>43.452412000000002</v>
       </c>
       <c r="C397">
-        <v>-80.416234000000003</v>
+        <v>-80.424978999999993</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398">
-        <v>43.447045000000003</v>
+        <v>43.444581999999997</v>
       </c>
       <c r="C398">
-        <v>-80.421141000000006</v>
+        <v>-80.416234000000003</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399">
-        <v>43.455404999999999</v>
+        <v>43.447045000000003</v>
       </c>
       <c r="C399">
-        <v>-80.427355000000006</v>
+        <v>-80.421141000000006</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400">
-        <v>43.465074999999999</v>
+        <v>43.455404999999999</v>
       </c>
       <c r="C400">
-        <v>-80.436744000000004</v>
+        <v>-80.427355000000006</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401">
-        <v>43.457284000000001</v>
+        <v>43.465074999999999</v>
       </c>
       <c r="C401">
-        <v>-80.431550999999999</v>
+        <v>-80.436744000000004</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402">
-        <v>43.461841</v>
+        <v>43.457284000000001</v>
       </c>
       <c r="C402">
-        <v>-80.436952000000005</v>
+        <v>-80.431550999999999</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403">
-        <v>43.457284000000001</v>
+        <v>43.461841</v>
       </c>
       <c r="C403">
-        <v>-80.431550999999999</v>
+        <v>-80.436952000000005</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404">
-        <v>43.471744999999999</v>
+        <v>43.457284000000001</v>
       </c>
       <c r="C404">
-        <v>-80.441305999999997</v>
+        <v>-80.431550999999999</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405">
-        <v>43.469197000000001</v>
+        <v>43.471744999999999</v>
       </c>
       <c r="C405">
-        <v>-80.439481000000001</v>
+        <v>-80.441305999999997</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406">
-        <v>43.449897</v>
+        <v>43.469197000000001</v>
       </c>
       <c r="C406">
-        <v>-80.423837000000006</v>
+        <v>-80.439481000000001</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407">
-        <v>43.467869</v>
+        <v>43.449897</v>
       </c>
       <c r="C407">
-        <v>-80.484263999999996</v>
+        <v>-80.423837000000006</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408">
-        <v>43.469251999999997</v>
+        <v>43.467869</v>
       </c>
       <c r="C408">
-        <v>-80.484297999999995</v>
+        <v>-80.484263999999996</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409">
-        <v>43.460318999999998</v>
+        <v>43.469251999999997</v>
       </c>
       <c r="C409">
-        <v>-80.483127999999994</v>
+        <v>-80.484297999999995</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410">
-        <v>43.459864000000003</v>
+        <v>43.460318999999998</v>
       </c>
       <c r="C410">
-        <v>-80.482985999999997</v>
+        <v>-80.483127999999994</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411">
-        <v>43.476761000000003</v>
+        <v>43.459864000000003</v>
       </c>
       <c r="C411">
-        <v>-80.484423000000007</v>
+        <v>-80.482985999999997</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412">
-        <v>43.473827999999997</v>
+        <v>43.476761000000003</v>
       </c>
       <c r="C412">
-        <v>-80.484386000000001</v>
+        <v>-80.484423000000007</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413">
-        <v>43.472132000000002</v>
+        <v>43.473827999999997</v>
       </c>
       <c r="C413">
-        <v>-80.484375</v>
+        <v>-80.484386000000001</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414">
-        <v>43.468744000000001</v>
+        <v>43.472132000000002</v>
       </c>
       <c r="C414">
-        <v>-80.484288000000006</v>
+        <v>-80.484375</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415">
-        <v>43.468493000000002</v>
+        <v>43.468744000000001</v>
       </c>
       <c r="C415">
-        <v>-80.484284000000002</v>
+        <v>-80.484288000000006</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416">
-        <v>43.479064000000001</v>
+        <v>43.468493000000002</v>
       </c>
       <c r="C416">
-        <v>-80.484444999999994</v>
+        <v>-80.484284000000002</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417">
-        <v>43.465586000000002</v>
+        <v>43.479064000000001</v>
       </c>
       <c r="C417">
-        <v>-80.484206999999998</v>
+        <v>-80.484444999999994</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418">
-        <v>43.475389999999997</v>
+        <v>43.465586000000002</v>
       </c>
       <c r="C418">
-        <v>-80.484412000000006</v>
+        <v>-80.484206999999998</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419">
-        <v>43.464039</v>
+        <v>43.475389999999997</v>
       </c>
       <c r="C419">
-        <v>-80.484156999999996</v>
+        <v>-80.484412000000006</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420">
-        <v>43.462865000000001</v>
+        <v>43.464039</v>
       </c>
       <c r="C420">
-        <v>-80.483956000000006</v>
+        <v>-80.484156999999996</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421">
-        <v>43.481426999999996</v>
+        <v>43.462865000000001</v>
       </c>
       <c r="C421">
-        <v>-80.483217999999994</v>
+        <v>-80.483956000000006</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422">
-        <v>43.477657999999998</v>
+        <v>43.481426999999996</v>
       </c>
       <c r="C422">
-        <v>-80.484442000000001</v>
+        <v>-80.483217999999994</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423">
-        <v>43.462021</v>
+        <v>43.477657999999998</v>
       </c>
       <c r="C423">
-        <v>-80.483680000000007</v>
+        <v>-80.484442000000001</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424">
-        <v>43.479627000000001</v>
+        <v>43.462021</v>
       </c>
       <c r="C424">
-        <v>-80.484418000000005</v>
+        <v>-80.483680000000007</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425">
-        <v>43.471243000000001</v>
+        <v>43.479627000000001</v>
       </c>
       <c r="C425">
-        <v>-80.484348999999995</v>
+        <v>-80.484418000000005</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426">
-        <v>43.458576999999998</v>
+        <v>43.471243000000001</v>
       </c>
       <c r="C426">
-        <v>-80.482547999999994</v>
+        <v>-80.484348999999995</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427">
-        <v>43.480744999999999</v>
+        <v>43.458576999999998</v>
       </c>
       <c r="C427">
-        <v>-80.483711</v>
+        <v>-80.482547999999994</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428">
-        <v>43.460943</v>
+        <v>43.480744999999999</v>
       </c>
       <c r="C428">
-        <v>-80.483327000000003</v>
+        <v>-80.483711</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429">
-        <v>43.412432000000003</v>
+        <v>43.460943</v>
       </c>
       <c r="C429">
-        <v>-80.449392000000003</v>
+        <v>-80.483327000000003</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430">
-        <v>43.401304000000003</v>
+        <v>43.412432000000003</v>
       </c>
       <c r="C430">
-        <v>-80.447653000000003</v>
+        <v>-80.449392000000003</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431">
-        <v>43.415958000000003</v>
+        <v>43.401304000000003</v>
       </c>
       <c r="C431">
-        <v>-80.450153</v>
+        <v>-80.447653000000003</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432">
-        <v>43.419226999999999</v>
+        <v>43.415958000000003</v>
       </c>
       <c r="C432">
-        <v>-80.453693000000001</v>
+        <v>-80.450153</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433">
-        <v>43.406799999999997</v>
+        <v>43.419226999999999</v>
       </c>
       <c r="C433">
-        <v>-80.448642000000007</v>
+        <v>-80.453693000000001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434">
-        <v>43.408137000000004</v>
+        <v>43.406799999999997</v>
       </c>
       <c r="C434">
-        <v>-80.448823000000004</v>
+        <v>-80.448642000000007</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435">
-        <v>43.416525</v>
+        <v>43.408137000000004</v>
       </c>
       <c r="C435">
-        <v>-80.450878000000003</v>
+        <v>-80.448823000000004</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436">
-        <v>43.363971999999997</v>
+        <v>43.416525</v>
       </c>
       <c r="C436">
-        <v>-80.446665999999993</v>
+        <v>-80.450878000000003</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437">
-        <v>43.384118000000001</v>
+        <v>43.363971999999997</v>
       </c>
       <c r="C437">
-        <v>-80.407404</v>
+        <v>-80.446665999999993</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438">
-        <v>43.371735999999999</v>
+        <v>43.384118000000001</v>
       </c>
       <c r="C438">
-        <v>-80.426922000000005</v>
+        <v>-80.407404</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439">
-        <v>43.365367999999997</v>
+        <v>43.371735999999999</v>
       </c>
       <c r="C439">
-        <v>-80.439301</v>
+        <v>-80.426922000000005</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440">
-        <v>43.379663999999998</v>
+        <v>43.365367999999997</v>
       </c>
       <c r="C440">
-        <v>-80.408868999999996</v>
+        <v>-80.439301</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441">
-        <v>43.358024999999998</v>
+        <v>43.379663999999998</v>
       </c>
       <c r="C441">
-        <v>-80.481453000000002</v>
+        <v>-80.408868999999996</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442">
-        <v>43.385401000000002</v>
+        <v>43.358024999999998</v>
       </c>
       <c r="C442">
-        <v>-80.406989999999993</v>
+        <v>-80.481453000000002</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443">
-        <v>43.376019999999997</v>
+        <v>43.385401000000002</v>
       </c>
       <c r="C443">
-        <v>-80.412885000000003</v>
+        <v>-80.406989999999993</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444">
-        <v>43.372866999999999</v>
+        <v>43.376019999999997</v>
       </c>
       <c r="C444">
-        <v>-80.423901000000001</v>
+        <v>-80.412885000000003</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445">
-        <v>43.363003999999997</v>
+        <v>43.372866999999999</v>
       </c>
       <c r="C445">
-        <v>-80.452670999999995</v>
+        <v>-80.423901000000001</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446">
-        <v>43.373390000000001</v>
+        <v>43.363003999999997</v>
       </c>
       <c r="C446">
-        <v>-80.422156999999999</v>
+        <v>-80.452670999999995</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447">
-        <v>43.364710000000002</v>
+        <v>43.373390000000001</v>
       </c>
       <c r="C447">
-        <v>-80.442768999999998</v>
+        <v>-80.422156999999999</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448">
-        <v>43.451926</v>
+        <v>43.364710000000002</v>
       </c>
       <c r="C448">
-        <v>-80.441350999999997</v>
+        <v>-80.442768999999998</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449">
-        <v>43.442503000000002</v>
+        <v>43.451926</v>
       </c>
       <c r="C449">
-        <v>-80.470572000000004</v>
+        <v>-80.441350999999997</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450">
-        <v>43.445605</v>
+        <v>43.442503000000002</v>
       </c>
       <c r="C450">
-        <v>-80.463218999999995</v>
+        <v>-80.470572000000004</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451">
-        <v>43.445832000000003</v>
+        <v>43.445605</v>
       </c>
       <c r="C451">
-        <v>-80.462643</v>
+        <v>-80.463218999999995</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452">
-        <v>43.445881</v>
+        <v>43.445832000000003</v>
       </c>
       <c r="C452">
-        <v>-80.462517000000005</v>
+        <v>-80.462643</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453">
-        <v>43.446058999999998</v>
+        <v>43.445881</v>
       </c>
       <c r="C453">
-        <v>-80.461985999999996</v>
+        <v>-80.462517000000005</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454">
-        <v>43.447313000000001</v>
+        <v>43.446058999999998</v>
       </c>
       <c r="C454">
-        <v>-80.459107000000003</v>
+        <v>-80.461985999999996</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455">
-        <v>43.447059000000003</v>
+        <v>43.447313000000001</v>
       </c>
       <c r="C455">
-        <v>-80.459582999999995</v>
+        <v>-80.459107000000003</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456">
-        <v>43.450248000000002</v>
+        <v>43.447059000000003</v>
       </c>
       <c r="C456">
-        <v>-80.446144000000004</v>
+        <v>-80.459582999999995</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457">
-        <v>43.448146999999999</v>
+        <v>43.450248000000002</v>
       </c>
       <c r="C457">
-        <v>-80.453061000000005</v>
+        <v>-80.446144000000004</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458">
-        <v>43.448627999999999</v>
+        <v>43.448146999999999</v>
       </c>
       <c r="C458">
-        <v>-80.450913999999997</v>
+        <v>-80.453061000000005</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459">
-        <v>43.455132999999996</v>
+        <v>43.448627999999999</v>
       </c>
       <c r="C459">
-        <v>-80.433008999999998</v>
+        <v>-80.450913999999997</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460">
-        <v>43.449399</v>
+        <v>43.455132999999996</v>
       </c>
       <c r="C460">
-        <v>-80.448711000000003</v>
+        <v>-80.433008999999998</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461">
-        <v>43.441898999999999</v>
+        <v>43.449399</v>
       </c>
       <c r="C461">
-        <v>-80.471666999999997</v>
+        <v>-80.448711000000003</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462">
-        <v>43.453797000000002</v>
+        <v>43.441898999999999</v>
       </c>
       <c r="C462">
-        <v>-80.435659000000001</v>
+        <v>-80.471666999999997</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463">
-        <v>43.444527999999998</v>
+        <v>43.453797000000002</v>
       </c>
       <c r="C463">
-        <v>-80.466116</v>
+        <v>-80.435659000000001</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464">
-        <v>43.449576</v>
+        <v>43.444527999999998</v>
       </c>
       <c r="C464">
-        <v>-80.448170000000005</v>
+        <v>-80.466116</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465">
-        <v>43.452663000000001</v>
+        <v>43.449576</v>
       </c>
       <c r="C465">
-        <v>-80.439080000000004</v>
+        <v>-80.448170000000005</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466">
-        <v>43.447811000000002</v>
+        <v>43.452663000000001</v>
       </c>
       <c r="C466">
-        <v>-80.45823</v>
+        <v>-80.439080000000004</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467">
-        <v>43.452182999999998</v>
+        <v>43.447811000000002</v>
       </c>
       <c r="C467">
-        <v>-80.440586999999994</v>
+        <v>-80.45823</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468">
-        <v>43.455626000000002</v>
+        <v>43.452182999999998</v>
       </c>
       <c r="C468">
-        <v>-80.432353000000006</v>
+        <v>-80.440586999999994</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469">
-        <v>43.450884000000002</v>
+        <v>43.455626000000002</v>
       </c>
       <c r="C469">
-        <v>-80.444340999999994</v>
+        <v>-80.432353000000006</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470">
-        <v>43.443303</v>
+        <v>43.450884000000002</v>
       </c>
       <c r="C470">
-        <v>-80.468913000000001</v>
+        <v>-80.444340999999994</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471">
-        <v>43.454608</v>
+        <v>43.443303</v>
       </c>
       <c r="C471">
-        <v>-80.433920000000001</v>
+        <v>-80.468913000000001</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472">
-        <v>43.444108999999997</v>
+        <v>43.454608</v>
       </c>
       <c r="C472">
-        <v>-80.467248999999995</v>
+        <v>-80.433920000000001</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473">
-        <v>43.435184999999997</v>
+        <v>43.444108999999997</v>
       </c>
       <c r="C473">
-        <v>-80.478375999999997</v>
+        <v>-80.467248999999995</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474">
-        <v>43.425314</v>
+        <v>43.435184999999997</v>
       </c>
       <c r="C474">
-        <v>-80.483801999999997</v>
+        <v>-80.478375999999997</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475">
-        <v>43.437581000000002</v>
+        <v>43.425314</v>
       </c>
       <c r="C475">
-        <v>-80.476257000000004</v>
+        <v>-80.483801999999997</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476">
-        <v>43.404141000000003</v>
+        <v>43.437581000000002</v>
       </c>
       <c r="C476">
-        <v>-80.533223000000007</v>
+        <v>-80.476257000000004</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477">
-        <v>43.427556000000003</v>
+        <v>43.404141000000003</v>
       </c>
       <c r="C477">
-        <v>-80.481564000000006</v>
+        <v>-80.533223000000007</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478">
-        <v>43.441231999999999</v>
+        <v>43.427556000000003</v>
       </c>
       <c r="C478">
-        <v>-80.472324</v>
+        <v>-80.481564000000006</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479">
-        <v>43.436909</v>
+        <v>43.441231999999999</v>
       </c>
       <c r="C479">
-        <v>-80.477029000000002</v>
+        <v>-80.472324</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480">
-        <v>43.438173999999997</v>
+        <v>43.436909</v>
       </c>
       <c r="C480">
-        <v>-80.475584999999995</v>
+        <v>-80.477029000000002</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481">
-        <v>43.421681999999997</v>
+        <v>43.438173999999997</v>
       </c>
       <c r="C481">
-        <v>-80.494083000000003</v>
+        <v>-80.475584999999995</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482">
-        <v>43.416809999999998</v>
+        <v>43.421681999999997</v>
       </c>
       <c r="C482">
-        <v>-80.511341000000002</v>
+        <v>-80.494083000000003</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483">
-        <v>43.43177</v>
+        <v>43.416809999999998</v>
       </c>
       <c r="C483">
-        <v>-80.479445999999996</v>
+        <v>-80.511341000000002</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>292</v>
+        <v>482</v>
       </c>
       <c r="B484">
-        <v>43.426670999999999</v>
+        <v>43.43177</v>
       </c>
       <c r="C484">
-        <v>-80.482575999999995</v>
+        <v>-80.479445999999996</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -57814,6 +57841,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C772">
+    <sortCondition ref="A2:A772"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D259A92E-7CCC-47BB-9887-B35942E1D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED58461-CAB2-446D-8743-BD1141107441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>gasVDiesel</t>
   </si>
   <si>
-    <t>cost$perKm</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>LookUP_ID</t>
+  </si>
+  <si>
+    <t>costperKm</t>
   </si>
 </sst>
 </file>
@@ -16054,7 +16054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28A1B1-7502-429F-85F9-CD10DDDC1BB5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -16065,7 +16065,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -16297,7 +16297,7 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31804,7 +31804,7 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47310,8 +47310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2110C9B-6C2B-4BD2-A9A9-3FC4C1DECE20}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A17:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47332,7 +47332,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -49350,13 +49350,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED58461-CAB2-446D-8743-BD1141107441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6762F2E-EE9F-47CD-AC62-A716C8C156DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -51,15 +51,6 @@
     <t>currlocation</t>
   </si>
   <si>
-    <t>Origin ID</t>
-  </si>
-  <si>
-    <t>Destination ID</t>
-  </si>
-  <si>
-    <t>Length [m]</t>
-  </si>
-  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
   </si>
   <si>
     <t>demand_units</t>
-  </si>
-  <si>
-    <t>Trip Cost [$]</t>
-  </si>
-  <si>
-    <t>Speed Limit [km/hr]</t>
   </si>
   <si>
     <t>typeTruck</t>
@@ -139,6 +124,21 @@
   </si>
   <si>
     <t>costperKm</t>
+  </si>
+  <si>
+    <t>Speed_Limit</t>
+  </si>
+  <si>
+    <t>Origin_ID</t>
+  </si>
+  <si>
+    <t>Destination_ID</t>
+  </si>
+  <si>
+    <t>Length_m</t>
+  </si>
+  <si>
+    <t>Trip_Cost_dollar</t>
   </si>
 </sst>
 </file>
@@ -547,25 +547,25 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16065,19 +16065,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16088,10 +16088,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16102,10 +16102,10 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16116,10 +16116,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16175,10 +16175,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16296,8 +16296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3964-B315-46AB-B568-DEF1F2961ED0}">
   <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16306,15 +16306,15 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -31804,7 +31804,7 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31813,15 +31813,15 @@
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -47310,7 +47310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2110C9B-6C2B-4BD2-A9A9-3FC4C1DECE20}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -47323,24 +47323,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -47351,10 +47351,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -47365,10 +47365,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -47379,10 +47379,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -47393,10 +47393,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -47407,10 +47407,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -47421,10 +47421,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -47435,10 +47435,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -47449,10 +47449,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -47460,10 +47460,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -47474,10 +47474,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -47488,10 +47488,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -47502,10 +47502,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -47516,10 +47516,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -47530,10 +47530,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -47544,10 +47544,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -47558,10 +47558,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -47572,10 +47572,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -47586,10 +47586,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -47600,10 +47600,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>40</v>
@@ -47614,10 +47614,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -47628,10 +47628,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>40</v>
@@ -47642,10 +47642,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -47656,10 +47656,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -47670,10 +47670,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>40</v>
@@ -47684,10 +47684,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>40</v>
@@ -47698,10 +47698,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -47709,10 +47709,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>40</v>
@@ -47723,10 +47723,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -47737,10 +47737,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -47751,10 +47751,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -47765,10 +47765,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -47779,10 +47779,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
         <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -47793,10 +47793,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -47807,10 +47807,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>40</v>
@@ -47821,10 +47821,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C37">
         <v>40</v>
@@ -47835,10 +47835,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -47849,10 +47849,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>50</v>
@@ -47863,10 +47863,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>50</v>
@@ -47877,10 +47877,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>50</v>
@@ -47891,10 +47891,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
         <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -47905,10 +47905,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>50</v>
@@ -47919,10 +47919,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>50</v>
@@ -47933,10 +47933,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>50</v>
@@ -47947,10 +47947,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>50</v>
@@ -47958,10 +47958,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>50</v>
@@ -47972,10 +47972,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -47986,10 +47986,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <v>50</v>
@@ -48000,10 +48000,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -48014,10 +48014,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -48028,10 +48028,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
         <v>19</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -48042,10 +48042,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>50</v>
@@ -48056,10 +48056,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -48070,10 +48070,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>50</v>
@@ -48084,10 +48084,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C56">
         <v>60</v>
@@ -48098,10 +48098,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>60</v>
@@ -48112,10 +48112,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
         <v>60</v>
@@ -48126,10 +48126,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>60</v>
@@ -48140,10 +48140,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
         <v>18</v>
-      </c>
-      <c r="B60" t="s">
-        <v>23</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -48154,10 +48154,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -48168,10 +48168,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -48182,10 +48182,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -48196,10 +48196,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>60</v>
@@ -48208,10 +48208,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>60</v>
@@ -48222,10 +48222,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C66">
         <v>60</v>
@@ -48236,10 +48236,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>60</v>
@@ -48250,10 +48250,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C68">
         <v>60</v>
@@ -48264,10 +48264,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C69">
         <v>60</v>
@@ -48278,10 +48278,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
         <v>19</v>
-      </c>
-      <c r="B70" t="s">
-        <v>24</v>
       </c>
       <c r="C70">
         <v>60</v>
@@ -48292,10 +48292,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>60</v>
@@ -48306,10 +48306,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>60</v>
@@ -48320,10 +48320,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C73">
         <v>60</v>
@@ -48334,10 +48334,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>70</v>
@@ -48348,10 +48348,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>70</v>
@@ -48362,10 +48362,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C76">
         <v>70</v>
@@ -48376,10 +48376,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C77">
         <v>70</v>
@@ -48390,10 +48390,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
         <v>18</v>
-      </c>
-      <c r="B78" t="s">
-        <v>23</v>
       </c>
       <c r="C78">
         <v>70</v>
@@ -48404,10 +48404,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -48418,10 +48418,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -48432,10 +48432,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>70</v>
@@ -48446,10 +48446,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
         <v>70</v>
@@ -48457,10 +48457,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C83">
         <v>70</v>
@@ -48471,10 +48471,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>70</v>
@@ -48485,10 +48485,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C85">
         <v>70</v>
@@ -48499,10 +48499,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C86">
         <v>70</v>
@@ -48513,10 +48513,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C87">
         <v>70</v>
@@ -48527,10 +48527,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
         <v>19</v>
-      </c>
-      <c r="B88" t="s">
-        <v>24</v>
       </c>
       <c r="C88">
         <v>70</v>
@@ -48541,10 +48541,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C89">
         <v>70</v>
@@ -48555,10 +48555,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C90">
         <v>70</v>
@@ -48569,10 +48569,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C91">
         <v>70</v>
@@ -48583,10 +48583,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C92">
         <v>80</v>
@@ -48597,10 +48597,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C93">
         <v>80</v>
@@ -48611,10 +48611,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C94">
         <v>80</v>
@@ -48625,10 +48625,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C95">
         <v>80</v>
@@ -48639,10 +48639,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
         <v>18</v>
-      </c>
-      <c r="B96" t="s">
-        <v>23</v>
       </c>
       <c r="C96">
         <v>80</v>
@@ -48653,10 +48653,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C97">
         <v>80</v>
@@ -48667,10 +48667,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C98">
         <v>80</v>
@@ -48681,10 +48681,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C99">
         <v>80</v>
@@ -48695,10 +48695,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C100">
         <v>80</v>
@@ -48706,10 +48706,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C101">
         <v>80</v>
@@ -48720,10 +48720,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C102">
         <v>80</v>
@@ -48734,10 +48734,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C103">
         <v>80</v>
@@ -48748,10 +48748,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C104">
         <v>80</v>
@@ -48762,10 +48762,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>80</v>
@@ -48776,10 +48776,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
         <v>19</v>
-      </c>
-      <c r="B106" t="s">
-        <v>24</v>
       </c>
       <c r="C106">
         <v>80</v>
@@ -48790,10 +48790,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C107">
         <v>80</v>
@@ -48804,10 +48804,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>80</v>
@@ -48818,10 +48818,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C109">
         <v>80</v>
@@ -48832,10 +48832,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C110">
         <v>90</v>
@@ -48846,10 +48846,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C111">
         <v>90</v>
@@ -48860,10 +48860,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C112">
         <v>90</v>
@@ -48874,10 +48874,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C113">
         <v>90</v>
@@ -48888,10 +48888,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
         <v>18</v>
-      </c>
-      <c r="B114" t="s">
-        <v>23</v>
       </c>
       <c r="C114">
         <v>90</v>
@@ -48902,10 +48902,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C115">
         <v>90</v>
@@ -48916,10 +48916,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C116">
         <v>90</v>
@@ -48930,10 +48930,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C117">
         <v>90</v>
@@ -48944,10 +48944,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C118">
         <v>90</v>
@@ -48955,10 +48955,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C119">
         <v>90</v>
@@ -48969,10 +48969,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C120">
         <v>90</v>
@@ -48983,10 +48983,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C121">
         <v>90</v>
@@ -48997,10 +48997,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -49011,10 +49011,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C123">
         <v>90</v>
@@ -49025,10 +49025,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
         <v>19</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
       </c>
       <c r="C124">
         <v>90</v>
@@ -49039,10 +49039,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C125">
         <v>90</v>
@@ -49053,10 +49053,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C126">
         <v>90</v>
@@ -49067,10 +49067,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>90</v>
@@ -49081,10 +49081,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -49095,10 +49095,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C129">
         <v>100</v>
@@ -49109,10 +49109,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
         <v>100</v>
@@ -49123,10 +49123,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C131">
         <v>100</v>
@@ -49137,10 +49137,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
         <v>18</v>
-      </c>
-      <c r="B132" t="s">
-        <v>23</v>
       </c>
       <c r="C132">
         <v>100</v>
@@ -49151,10 +49151,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C133">
         <v>100</v>
@@ -49165,10 +49165,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C134">
         <v>100</v>
@@ -49179,10 +49179,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C135">
         <v>100</v>
@@ -49193,10 +49193,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C136">
         <v>100</v>
@@ -49205,10 +49205,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C137">
         <v>100</v>
@@ -49219,10 +49219,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C138">
         <v>100</v>
@@ -49233,10 +49233,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C139">
         <v>100</v>
@@ -49247,10 +49247,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C140">
         <v>100</v>
@@ -49261,10 +49261,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C141">
         <v>100</v>
@@ -49275,10 +49275,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
         <v>19</v>
-      </c>
-      <c r="B142" t="s">
-        <v>24</v>
       </c>
       <c r="C142">
         <v>100</v>
@@ -49289,10 +49289,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C143">
         <v>100</v>
@@ -49303,10 +49303,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C144">
         <v>100</v>
@@ -49317,10 +49317,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C145">
         <v>100</v>
@@ -49350,13 +49350,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6762F2E-EE9F-47CD-AC62-A716C8C156DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A57633-3CD5-4AD7-A561-4E3EA4BC338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -16164,7 +16164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290690B-788D-418B-8F02-4A152F43089F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -16296,7 +16296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3964-B315-46AB-B568-DEF1F2961ED0}">
   <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -47311,7 +47311,7 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCCE74-42B8-4983-9039-0B04D526B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F92807-0933-45D0-B7FB-7B4D9DC4D4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -31814,8 +31814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C048CC81-CCEF-4B17-B943-888993FA9942}">
   <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47321,8 +47321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2110C9B-6C2B-4BD2-A9A9-3FC4C1DECE20}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49349,7 +49349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85981391-5AC5-412B-9D88-7A67DDE92F86}">
   <dimension ref="A1:C777"/>
   <sheetViews>
-    <sheetView topLeftCell="A749" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D774" sqref="D774"/>
     </sheetView>
   </sheetViews>

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F92807-0933-45D0-B7FB-7B4D9DC4D4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03168216-407F-4E41-80D7-4E24689018D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -16174,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290690B-788D-418B-8F02-4A152F43089F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>465</v>
+        <v>800</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -47321,7 +47321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2110C9B-6C2B-4BD2-A9A9-3FC4C1DECE20}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -49349,7 +49349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85981391-5AC5-412B-9D88-7A67DDE92F86}">
   <dimension ref="A1:C777"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A736" workbookViewId="0">
       <selection activeCell="D774" sqref="D774"/>
     </sheetView>
   </sheetViews>

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03168216-407F-4E41-80D7-4E24689018D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE8249-2605-4711-9233-591CD13A5402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -16174,8 +16174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D290690B-788D-418B-8F02-4A152F43089F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>800</v>
+        <v>574</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -16209,7 +16209,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>586</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>141</v>
+        <v>284</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -16225,7 +16225,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="B6">
         <v>45</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>739</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>526</v>
+        <v>440</v>
       </c>
       <c r="B10">
         <v>45</v>
@@ -16265,7 +16265,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>552</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -16306,8 +16306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3964-B315-46AB-B568-DEF1F2961ED0}">
   <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31815,7 +31815,7 @@
   <dimension ref="A1:C1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49349,7 +49349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85981391-5AC5-412B-9D88-7A67DDE92F86}">
   <dimension ref="A1:C777"/>
   <sheetViews>
-    <sheetView topLeftCell="A736" workbookViewId="0">
+    <sheetView topLeftCell="A756" workbookViewId="0">
       <selection activeCell="D774" sqref="D774"/>
     </sheetView>
   </sheetViews>

--- a/Capstone_testfile1.xlsx
+++ b/Capstone_testfile1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheil\Documents\University4B\Capstone\FYDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE8249-2605-4711-9233-591CD13A5402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B0481-D8FE-462E-B273-59A359D42598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2C28F0EC-D3C5-4116-B35E-2B1143F028FC}"/>
   </bookViews>
   <sheets>
     <sheet name="distance" sheetId="2" r:id="rId1"/>
@@ -49,9 +49,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
-  <si>
-    <t>currlocation</t>
-  </si>
   <si>
     <t>capacity</t>
   </si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>lookup_ID</t>
+  </si>
+  <si>
+    <t>clcLocation</t>
   </si>
 </sst>
 </file>
@@ -569,13 +569,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16075,19 +16075,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16098,10 +16098,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16112,10 +16112,10 @@
         <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16126,10 +16126,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16185,10 +16185,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16278,10 +16278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76776BBF-AF5C-485D-93C9-550FE96BCFB8}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16289,11 +16289,13 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
@@ -16306,7 +16308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662D3964-B315-46AB-B568-DEF1F2961ED0}">
   <dimension ref="A1:C1408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -16318,13 +16320,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -31826,13 +31828,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -47334,24 +47336,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -47362,10 +47364,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -47376,10 +47378,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -47390,10 +47392,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -47404,10 +47406,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -47418,10 +47420,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -47432,10 +47434,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -47446,10 +47448,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -47460,10 +47462,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -47471,10 +47473,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -47485,10 +47487,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -47499,10 +47501,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -47513,10 +47515,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -47527,10 +47529,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>30</v>
@@ -47541,10 +47543,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -47555,10 +47557,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -47569,10 +47571,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -47583,10 +47585,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -47597,10 +47599,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -47611,10 +47613,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>40</v>
@@ -47625,10 +47627,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -47639,10 +47641,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>40</v>
@@ -47653,10 +47655,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -47667,10 +47669,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -47681,10 +47683,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>40</v>
@@ -47695,10 +47697,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>40</v>
@@ -47709,10 +47711,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
         <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -47720,10 +47722,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>40</v>
@@ -47734,10 +47736,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>40</v>
@@ -47748,10 +47750,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>40</v>
@@ -47762,10 +47764,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>40</v>
@@ -47776,10 +47778,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -47790,10 +47792,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>40</v>
@@ -47804,10 +47806,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -47818,10 +47820,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>40</v>
@@ -47832,10 +47834,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>40</v>
@@ -47846,10 +47848,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -47860,10 +47862,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39">
         <v>50</v>
@@ -47874,10 +47876,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>50</v>
@@ -47888,10 +47890,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>50</v>
@@ -47902,10 +47904,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>50</v>
@@ -47916,10 +47918,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>50</v>
@@ -47930,10 +47932,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>50</v>
@@ -47944,10 +47946,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>50</v>
@@ -47958,10 +47960,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
         <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
       </c>
       <c r="C46">
         <v>50</v>
@@ -47969,10 +47971,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>50</v>
@@ -47983,10 +47985,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -47997,10 +47999,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>50</v>
@@ -48011,10 +48013,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -48025,10 +48027,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -48039,10 +48041,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>50</v>
@@ -48053,10 +48055,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>50</v>
@@ -48067,10 +48069,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -48081,10 +48083,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>50</v>
@@ -48095,10 +48097,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>60</v>
@@ -48109,10 +48111,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>60</v>
@@ -48123,10 +48125,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58">
         <v>60</v>
@@ -48137,10 +48139,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>60</v>
@@ -48151,10 +48153,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -48165,10 +48167,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -48179,10 +48181,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -48193,10 +48195,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>60</v>
@@ -48207,10 +48209,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
         <v>17</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
       </c>
       <c r="C64">
         <v>60</v>
@@ -48219,10 +48221,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>60</v>
@@ -48233,10 +48235,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66">
         <v>60</v>
@@ -48247,10 +48249,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>60</v>
@@ -48261,10 +48263,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <v>60</v>
@@ -48275,10 +48277,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>60</v>
@@ -48289,10 +48291,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>60</v>
@@ -48303,10 +48305,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>60</v>
@@ -48317,10 +48319,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72">
         <v>60</v>
@@ -48331,10 +48333,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>60</v>
@@ -48345,10 +48347,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74">
         <v>70</v>
@@ -48359,10 +48361,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75">
         <v>70</v>
@@ -48373,10 +48375,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>70</v>
@@ -48387,10 +48389,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>70</v>
@@ -48401,10 +48403,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78">
         <v>70</v>
@@ -48415,10 +48417,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -48429,10 +48431,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -48443,10 +48445,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81">
         <v>70</v>
@@ -48457,10 +48459,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
         <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>18</v>
       </c>
       <c r="C82">
         <v>70</v>
@@ -48468,10 +48470,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>70</v>
@@ -48482,10 +48484,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84">
         <v>70</v>
@@ -48496,10 +48498,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>70</v>
@@ -48510,10 +48512,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C86">
         <v>70</v>
@@ -48524,10 +48526,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C87">
         <v>70</v>
@@ -48538,10 +48540,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88">
         <v>70</v>
@@ -48552,10 +48554,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C89">
         <v>70</v>
@@ -48566,10 +48568,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90">
         <v>70</v>
@@ -48580,10 +48582,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C91">
         <v>70</v>
@@ -48594,10 +48596,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>80</v>
@@ -48608,10 +48610,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>80</v>
@@ -48622,10 +48624,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94">
         <v>80</v>
@@ -48636,10 +48638,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <v>80</v>
@@ -48650,10 +48652,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>80</v>
@@ -48664,10 +48666,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>80</v>
@@ -48678,10 +48680,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98">
         <v>80</v>
@@ -48692,10 +48694,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99">
         <v>80</v>
@@ -48706,10 +48708,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
         <v>17</v>
-      </c>
-      <c r="B100" t="s">
-        <v>18</v>
       </c>
       <c r="C100">
         <v>80</v>
@@ -48717,10 +48719,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C101">
         <v>80</v>
@@ -48731,10 +48733,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102">
         <v>80</v>
@@ -48745,10 +48747,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103">
         <v>80</v>
@@ -48759,10 +48761,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C104">
         <v>80</v>
@@ -48773,10 +48775,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C105">
         <v>80</v>
@@ -48787,10 +48789,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106">
         <v>80</v>
@@ -48801,10 +48803,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>80</v>
@@ -48815,10 +48817,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108">
         <v>80</v>
@@ -48829,10 +48831,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>80</v>
@@ -48843,10 +48845,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110">
         <v>90</v>
@@ -48857,10 +48859,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>90</v>
@@ -48871,10 +48873,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>90</v>
@@ -48885,10 +48887,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>90</v>
@@ -48899,10 +48901,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C114">
         <v>90</v>
@@ -48913,10 +48915,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115">
         <v>90</v>
@@ -48927,10 +48929,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116">
         <v>90</v>
@@ -48941,10 +48943,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C117">
         <v>90</v>
@@ -48955,10 +48957,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
         <v>17</v>
-      </c>
-      <c r="B118" t="s">
-        <v>18</v>
       </c>
       <c r="C118">
         <v>90</v>
@@ -48966,10 +48968,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>90</v>
@@ -48980,10 +48982,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <v>90</v>
@@ -48994,10 +48996,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121">
         <v>90</v>
@@ -49008,10 +49010,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -49022,10 +49024,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <v>90</v>
@@ -49036,10 +49038,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124">
         <v>90</v>
@@ -49050,10 +49052,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>90</v>
@@ -49064,10 +49066,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>90</v>
@@ -49078,10 +49080,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C127">
         <v>90</v>
@@ -49092,10 +49094,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128">
         <v>100</v>
@@ -49106,10 +49108,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C129">
         <v>100</v>
@@ -49120,10 +49122,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C130">
         <v>100</v>
@@ -49134,10 +49136,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C131">
         <v>100</v>
@@ -49148,10 +49150,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C132">
         <v>100</v>
@@ -49162,10 +49164,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133">
         <v>100</v>
@@ -49176,10 +49178,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C134">
         <v>100</v>
@@ -49190,10 +49192,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135">
         <v>100</v>
@@ -49204,10 +49206,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
         <v>17</v>
-      </c>
-      <c r="B136" t="s">
-        <v>18</v>
       </c>
       <c r="C136">
         <v>100</v>
@@ -49216,10 +49218,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C137">
         <v>100</v>
@@ -49230,10 +49232,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138">
         <v>100</v>
@@ -49244,10 +49246,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139">
         <v>100</v>
@@ -49258,10 +49260,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C140">
         <v>100</v>
@@ -49272,10 +49274,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C141">
         <v>100</v>
@@ -49286,10 +49288,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C142">
         <v>100</v>
@@ -49300,10 +49302,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C143">
         <v>100</v>
@@ -49314,10 +49316,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>100</v>
@@ -49328,10 +49330,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145">
         <v>100</v>
@@ -49362,13 +49364,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
